--- a/data/stepByStep/stepByStep.xlsx
+++ b/data/stepByStep/stepByStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\104139\Documents\code\eurobench\eurobench_protocol\data\stepByStep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FC0E5-D891-416B-AC82-C9A6A77A588F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B39FEE1-EE78-4219-90DA-7DFA64DB9924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="450">
   <si>
     <t>Scenario-Protocol-PI-PI Algo template</t>
   </si>
@@ -2152,6 +2152,19 @@
   </si>
   <si>
     <t>NOT INSERTED</t>
+  </si>
+  <si>
+    <t>In this activity the subject will be asked first to ascend and descend the stair-based testbed  while wearing the LLE (motor task). Then, an auditory 1-back task (cognitive task) will be administered to the subject. During the auditory task the subject will be seated and will hear a sequence of 60 alphabet letters, presented on at a time, and will be asked to respond “yes” if the presented letter is a repetition of the immediately preceding alphabet letter, or “no” if the presented letter is not a repetition of the immediately preceding alphabet letter. Lastly, the subject will be asked to complete the motor and cognitive task simultaneously: he or she will
+ ascend and descend the stairs while answering "yes" or "no" after hearing the alphabet letter (cognitive-motor task).</t>
+  </si>
+  <si>
+    <t>An observational analysis will be performed by the experimenter while video recording the motor tasks performed by the end-user, i.e. stairs ascending and stairs descending while wearing the LLE. In this case the evaluation will be conducted by the experimenter and no partiicular requests will be made to the subject.</t>
+  </si>
+  <si>
+    <t>After the completion of the motor task, the experimenter will administer the Local Perceived Pressure questionnaire  to the subject. The subject will then be asked to fill out the questionnaire to measure the levels of comfort while wearing the exoskeleton.</t>
+  </si>
+  <si>
+    <t>This protocol describes the stair-based Human Factors protocol in its whole, specifying which are the actions that the experimenter has to carry out during the evaluation and the instructions that has to provide to the subject.</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2848,6 +2861,18 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2855,81 +2880,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2942,14 +2940,68 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2959,23 +3011,22 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2986,15 +3037,20 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3013,40 +3069,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3071,9 +3093,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2105025" cy="1181100"/>
     <xdr:pic>
@@ -3094,6 +3116,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="4067175"/>
+          <a:ext cx="2105025" cy="1181100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3105,9 +3131,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2105025" cy="1181100"/>
     <xdr:pic>
@@ -3128,6 +3154,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="29289375"/>
+          <a:ext cx="2105025" cy="1181100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3139,9 +3169,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2105025" cy="1181100"/>
     <xdr:pic>
@@ -3162,6 +3192,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="45386625"/>
+          <a:ext cx="2105025" cy="1181100"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3173,11 +3207,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>105105</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>72258</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2105025" cy="1181100"/>
+    <xdr:ext cx="2942895" cy="1746032"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="image5.jpg">
@@ -3196,6 +3230,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423950" y="56913517"/>
+          <a:ext cx="2942895" cy="1746032"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3579,8 +3617,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3614,8 +3652,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3677,8 +3715,8 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3747,10 +3785,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
@@ -3797,10 +3835,10 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
@@ -4792,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140:F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4808,14 +4846,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4845,24 +4883,24 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
@@ -4871,12 +4909,12 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
@@ -4885,20 +4923,20 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -4907,25 +4945,25 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:14">
@@ -4945,126 +4983,126 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="101"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="101"/>
+    <row r="16" spans="1:14" ht="65.25" customHeight="1">
+      <c r="A16" s="116"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="141" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="101"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -5082,42 +5120,42 @@
       <c r="F23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="G23" s="125" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -5126,83 +5164,83 @@
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="104" t="s">
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="126" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="16" t="s">
         <v>354</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="103"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="107"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="103"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="103"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
@@ -5213,217 +5251,219 @@
       <c r="F34" s="19"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="113" t="s">
+    <row r="35" spans="1:7" ht="154.5" customHeight="1">
+      <c r="A35" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="11" t="s">
+      <c r="C35" s="111" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="83" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="114"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="96" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="78" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="22" t="s">
         <v>355</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="103"/>
-    </row>
-    <row r="38" spans="1:7" ht="105">
-      <c r="A38" s="114"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="97"/>
+    </row>
+    <row r="38" spans="1:7" ht="75">
+      <c r="A38" s="107"/>
       <c r="B38" s="23" t="s">
         <v>358</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="103"/>
-    </row>
-    <row r="39" spans="1:7" ht="120">
-      <c r="A39" s="114"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="97"/>
+    </row>
+    <row r="39" spans="1:7" ht="90">
+      <c r="A39" s="107"/>
       <c r="B39" s="22" t="s">
         <v>360</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7" ht="218.25" customHeight="1">
-      <c r="A40" s="114"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="23" t="s">
         <v>362</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A41" s="114"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="147"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="103"/>
-    </row>
-    <row r="42" spans="1:7" ht="315">
-      <c r="A42" s="114"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="97"/>
+    </row>
+    <row r="42" spans="1:7" ht="255">
+      <c r="A42" s="107"/>
       <c r="B42" s="23" t="s">
         <v>367</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="103"/>
-    </row>
-    <row r="43" spans="1:7" ht="75">
-      <c r="A43" s="114"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="97"/>
+    </row>
+    <row r="43" spans="1:7" ht="60">
+      <c r="A43" s="107"/>
       <c r="B43" s="23" t="s">
         <v>369</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="103"/>
-    </row>
-    <row r="44" spans="1:7" ht="360">
-      <c r="A44" s="114"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="97"/>
+    </row>
+    <row r="44" spans="1:7" ht="285">
+      <c r="A44" s="107"/>
       <c r="B44" s="22" t="s">
         <v>371</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="93" t="s">
+      <c r="D44" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="103"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="97"/>
     </row>
     <row r="45" spans="1:7" ht="45">
-      <c r="A45" s="115"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="23" t="s">
         <v>373</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="97"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="100.5">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="85"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="85"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="85"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="28" t="s">
         <v>79</v>
       </c>
@@ -5432,130 +5472,130 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A54" s="101"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="85"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="89"/>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="90.75" customHeight="1">
-      <c r="A55" s="101"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="150"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="92"/>
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A56" s="101"/>
+      <c r="A56" s="116"/>
       <c r="B56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="89"/>
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A57" s="101"/>
+      <c r="A57" s="116"/>
       <c r="B57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="87" t="s">
         <v>376</v>
       </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="85"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="89"/>
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A58" s="101"/>
+      <c r="A58" s="116"/>
       <c r="B58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="89"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A59" s="101"/>
+      <c r="A59" s="116"/>
       <c r="B59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="85"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="89"/>
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A60" s="101"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="85"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="89"/>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A61" s="80"/>
-      <c r="B61" s="81"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="85"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -5576,7 +5616,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A63" s="101"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -5585,7 +5625,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A64" s="101"/>
+      <c r="A64" s="116"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -5594,7 +5634,7 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A65" s="101"/>
+      <c r="A65" s="116"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -5606,7 +5646,7 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -5615,28 +5655,28 @@
       <c r="C67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="84"/>
-      <c r="F67" s="85"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A68" s="107"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="83"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="85"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A69" s="107"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="16" t="s">
         <v>54</v>
       </c>
@@ -5644,12 +5684,12 @@
         <v>55</v>
       </c>
       <c r="D69" s="87"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="85"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="89"/>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A70" s="108"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="16" t="s">
         <v>85</v>
       </c>
@@ -5659,8 +5699,8 @@
       <c r="D70" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="84"/>
-      <c r="F70" s="85"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="89"/>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1">
@@ -5672,299 +5712,301 @@
       <c r="F71" s="19"/>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A72" s="113" t="s">
+    <row r="72" spans="1:7" ht="78" customHeight="1">
+      <c r="A72" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="85"/>
+      <c r="C72" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="113"/>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A73" s="114"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="95" t="s">
+      <c r="D73" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="84"/>
-      <c r="F73" s="85"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="89"/>
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A74" s="114"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="22" t="s">
         <v>355</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D74" s="93" t="s">
+      <c r="D74" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="85"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="89"/>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="114"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="22" t="s">
         <v>378</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D75" s="93"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="85"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="89"/>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" ht="240.75" customHeight="1">
-      <c r="A76" s="114"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="22" t="s">
         <v>360</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="84"/>
-      <c r="F76" s="85"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="89"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="60">
-      <c r="A77" s="114"/>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="107"/>
       <c r="B77" s="22" t="s">
         <v>381</v>
       </c>
       <c r="C77" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="D77" s="98"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="85"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="89"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" ht="45">
-      <c r="A78" s="114"/>
+    <row r="78" spans="1:7" ht="30">
+      <c r="A78" s="107"/>
       <c r="B78" s="22" t="s">
         <v>383</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="93"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="85"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="89"/>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="114"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="22" t="s">
         <v>366</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="93"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="85"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" ht="105">
-      <c r="A80" s="115"/>
+    <row r="80" spans="1:7" ht="75">
+      <c r="A80" s="108"/>
       <c r="B80" s="22" t="s">
         <v>369</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="D80" s="93"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="85"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="89"/>
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="116" t="s">
+      <c r="A82" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="85"/>
+      <c r="B82" s="89"/>
       <c r="C82" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D82" s="87"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="85"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="89"/>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="85"/>
+      <c r="B83" s="89"/>
       <c r="C83" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D83" s="87"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="85"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="89"/>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="85"/>
+      <c r="B84" s="89"/>
       <c r="C84" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="85"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="89"/>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A86" s="99" t="s">
+      <c r="A86" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="112" t="s">
+      <c r="A88" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A89" s="101"/>
+      <c r="A89" s="116"/>
       <c r="B89" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="85"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="89"/>
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A90" s="101"/>
+      <c r="A90" s="116"/>
       <c r="B90" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="85"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="89"/>
       <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" ht="146.25" customHeight="1">
-      <c r="A91" s="101"/>
+      <c r="A91" s="116"/>
       <c r="B91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="85"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="89"/>
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A92" s="101"/>
+      <c r="A92" s="116"/>
       <c r="B92" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="85"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="89"/>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A93" s="101"/>
+      <c r="A93" s="116"/>
       <c r="B93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="85"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="89"/>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A94" s="101"/>
+      <c r="A94" s="116"/>
       <c r="B94" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="92" t="s">
+      <c r="C94" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="85"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="89"/>
       <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A95" s="101"/>
+      <c r="A95" s="116"/>
       <c r="B95" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="96" t="s">
+      <c r="C95" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="85"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="89"/>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A96" s="80"/>
-      <c r="B96" s="81"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
       <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A97" s="100" t="s">
+      <c r="A97" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -5985,7 +6027,7 @@
       <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A98" s="101"/>
+      <c r="A98" s="116"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -5994,7 +6036,7 @@
       <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A99" s="101"/>
+      <c r="A99" s="116"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -6003,7 +6045,7 @@
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A100" s="101"/>
+      <c r="A100" s="116"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -6015,7 +6057,7 @@
       <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -6024,15 +6066,15 @@
       <c r="C102" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D102" s="97" t="s">
+      <c r="D102" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="84"/>
-      <c r="F102" s="85"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="89"/>
       <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A103" s="108"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="16" t="s">
         <v>94</v>
       </c>
@@ -6042,8 +6084,8 @@
       <c r="D103" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E103" s="84"/>
-      <c r="F103" s="85"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="89"/>
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1">
@@ -6055,245 +6097,247 @@
       <c r="F104" s="19"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A105" s="113" t="s">
+    <row r="105" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A105" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="85"/>
+      <c r="C105" s="111" t="s">
+        <v>448</v>
+      </c>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="113"/>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A106" s="114"/>
+      <c r="A106" s="107"/>
       <c r="B106" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="95" t="s">
+      <c r="D106" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E106" s="84"/>
-      <c r="F106" s="85"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="89"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="75">
-      <c r="A107" s="114"/>
+    <row r="107" spans="1:7" ht="60">
+      <c r="A107" s="107"/>
       <c r="B107" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D107" s="93"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="85"/>
+      <c r="D107" s="98"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="89"/>
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A108" s="114"/>
+      <c r="A108" s="107"/>
       <c r="B108" s="22" t="s">
         <v>390</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D108" s="93" t="s">
+      <c r="D108" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="E108" s="84"/>
-      <c r="F108" s="85"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="89"/>
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" ht="173.25" customHeight="1">
-      <c r="A109" s="115"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="22" t="s">
         <v>358</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D109" s="93" t="s">
+      <c r="D109" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="85"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="89"/>
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A111" s="116" t="s">
+      <c r="A111" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="85"/>
+      <c r="B111" s="89"/>
       <c r="C111" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D111" s="87"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="85"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="89"/>
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A112" s="117" t="s">
+      <c r="A112" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B112" s="85"/>
+      <c r="B112" s="89"/>
       <c r="C112" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D112" s="87"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="85"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="89"/>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A113" s="118" t="s">
+      <c r="A113" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="85"/>
+      <c r="B113" s="89"/>
       <c r="C113" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D113" s="88"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="85"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="89"/>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B115" s="90"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="90"/>
-      <c r="F115" s="90"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="104"/>
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A117" s="112" t="s">
+      <c r="A117" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="91" t="s">
+      <c r="C117" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="90"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="90"/>
+      <c r="D117" s="104"/>
+      <c r="E117" s="104"/>
+      <c r="F117" s="104"/>
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A118" s="101"/>
+      <c r="A118" s="116"/>
       <c r="B118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="92" t="s">
+      <c r="C118" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="85"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="88"/>
+      <c r="F118" s="89"/>
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A119" s="101"/>
+      <c r="A119" s="116"/>
       <c r="B119" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="93" t="s">
+      <c r="C119" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="85"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="89"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" ht="96" customHeight="1">
-      <c r="A120" s="101"/>
+    <row r="120" spans="1:7" ht="145.5" customHeight="1">
+      <c r="A120" s="116"/>
       <c r="B120" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="85"/>
+      <c r="C120" s="93"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="89"/>
       <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" ht="33" customHeight="1">
-      <c r="A121" s="101"/>
+      <c r="A121" s="116"/>
       <c r="B121" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="94" t="s">
+      <c r="C121" s="132" t="s">
         <v>393</v>
       </c>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="85"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A122" s="101"/>
+      <c r="A122" s="116"/>
       <c r="B122" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="92" t="s">
+      <c r="C122" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="84"/>
-      <c r="E122" s="84"/>
-      <c r="F122" s="85"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="89"/>
       <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A123" s="101"/>
+      <c r="A123" s="116"/>
       <c r="B123" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="92"/>
-      <c r="D123" s="84"/>
-      <c r="E123" s="84"/>
-      <c r="F123" s="85"/>
+      <c r="C123" s="94"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="89"/>
       <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A124" s="101"/>
+      <c r="A124" s="116"/>
       <c r="B124" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="96" t="s">
+      <c r="C124" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="85"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="89"/>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A125" s="80"/>
-      <c r="B125" s="81"/>
+      <c r="A125" s="84"/>
+      <c r="B125" s="85"/>
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A126" s="100" t="s">
+      <c r="A126" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B126" s="10" t="s">
@@ -6314,7 +6358,7 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A127" s="101"/>
+      <c r="A127" s="116"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
@@ -6323,7 +6367,7 @@
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A128" s="101"/>
+      <c r="A128" s="116"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
@@ -6332,7 +6376,7 @@
       <c r="G128" s="11"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A129" s="101"/>
+      <c r="A129" s="116"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
@@ -6344,7 +6388,7 @@
       <c r="G130" s="11"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A131" s="106" t="s">
+      <c r="A131" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B131" s="10" t="s">
@@ -6353,69 +6397,69 @@
       <c r="C131" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D131" s="97" t="s">
+      <c r="D131" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E131" s="84"/>
-      <c r="F131" s="85"/>
+      <c r="E131" s="88"/>
+      <c r="F131" s="89"/>
       <c r="G131" s="11"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A132" s="107"/>
+      <c r="A132" s="119"/>
       <c r="B132" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D132" s="83"/>
-      <c r="E132" s="84"/>
-      <c r="F132" s="85"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="88"/>
+      <c r="F132" s="89"/>
       <c r="G132" s="11"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A133" s="107"/>
+      <c r="A133" s="119"/>
       <c r="B133" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D133" s="83"/>
-      <c r="E133" s="84"/>
-      <c r="F133" s="85"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="89"/>
       <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A134" s="107"/>
+      <c r="A134" s="119"/>
       <c r="B134" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D134" s="86" t="s">
+      <c r="D134" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E134" s="84"/>
-      <c r="F134" s="85"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="89"/>
       <c r="G134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A135" s="107"/>
+      <c r="A135" s="119"/>
       <c r="B135" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D135" s="83"/>
-      <c r="E135" s="84"/>
-      <c r="F135" s="85"/>
+      <c r="D135" s="93"/>
+      <c r="E135" s="88"/>
+      <c r="F135" s="89"/>
       <c r="G135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A136" s="107"/>
+      <c r="A136" s="119"/>
       <c r="B136" s="17" t="s">
         <v>83</v>
       </c>
@@ -6423,12 +6467,12 @@
         <v>84</v>
       </c>
       <c r="D136" s="87"/>
-      <c r="E136" s="84"/>
-      <c r="F136" s="85"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="89"/>
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A137" s="107"/>
+      <c r="A137" s="119"/>
       <c r="B137" s="17" t="s">
         <v>100</v>
       </c>
@@ -6438,12 +6482,12 @@
       <c r="D137" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E137" s="84"/>
-      <c r="F137" s="85"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="89"/>
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A138" s="108"/>
+      <c r="A138" s="120"/>
       <c r="B138" s="17" t="s">
         <v>101</v>
       </c>
@@ -6453,8 +6497,8 @@
       <c r="D138" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E138" s="84"/>
-      <c r="F138" s="85"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="89"/>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1">
@@ -6466,325 +6510,327 @@
       <c r="F139" s="19"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A140" s="113" t="s">
+    <row r="140" spans="1:7" ht="78.75" customHeight="1">
+      <c r="A140" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B140" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="84"/>
-      <c r="F140" s="85"/>
+      <c r="C140" s="111" t="s">
+        <v>449</v>
+      </c>
+      <c r="D140" s="112"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="113"/>
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A141" s="114"/>
+      <c r="A141" s="107"/>
       <c r="B141" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="95" t="s">
+      <c r="D141" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E141" s="84"/>
-      <c r="F141" s="85"/>
+      <c r="E141" s="88"/>
+      <c r="F141" s="89"/>
       <c r="G141" s="11"/>
     </row>
     <row r="142" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A142" s="114"/>
+      <c r="A142" s="107"/>
       <c r="B142" s="22" t="s">
         <v>355</v>
       </c>
       <c r="C142" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D142" s="93" t="s">
+      <c r="D142" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="E142" s="84"/>
-      <c r="F142" s="85"/>
+      <c r="E142" s="88"/>
+      <c r="F142" s="89"/>
       <c r="G142" s="11"/>
     </row>
     <row r="143" spans="1:7" ht="45" customHeight="1">
-      <c r="A143" s="114"/>
+      <c r="A143" s="107"/>
       <c r="B143" s="22" t="s">
         <v>358</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D143" s="93" t="s">
+      <c r="D143" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E143" s="84"/>
-      <c r="F143" s="85"/>
+      <c r="E143" s="88"/>
+      <c r="F143" s="89"/>
       <c r="G143" s="11"/>
     </row>
     <row r="144" spans="1:7" ht="63" customHeight="1">
-      <c r="A144" s="114"/>
+      <c r="A144" s="107"/>
       <c r="B144" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="D144" s="93" t="s">
+      <c r="D144" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E144" s="84"/>
-      <c r="F144" s="85"/>
+      <c r="E144" s="88"/>
+      <c r="F144" s="89"/>
       <c r="G144" s="11"/>
     </row>
     <row r="145" spans="1:7" ht="231.75" customHeight="1">
-      <c r="A145" s="114"/>
+      <c r="A145" s="107"/>
       <c r="B145" s="22" t="s">
         <v>381</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D145" s="93" t="s">
+      <c r="D145" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E145" s="84"/>
-      <c r="F145" s="85"/>
+      <c r="E145" s="88"/>
+      <c r="F145" s="89"/>
       <c r="G145" s="11"/>
     </row>
     <row r="146" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A146" s="114"/>
+      <c r="A146" s="107"/>
       <c r="B146" s="22" t="s">
         <v>383</v>
       </c>
       <c r="C146" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D146" s="93" t="s">
+      <c r="D146" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="E146" s="84"/>
-      <c r="F146" s="85"/>
+      <c r="E146" s="88"/>
+      <c r="F146" s="89"/>
       <c r="G146" s="11"/>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A147" s="114"/>
+      <c r="A147" s="107"/>
       <c r="B147" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C147" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D147" s="93"/>
-      <c r="E147" s="84"/>
-      <c r="F147" s="85"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="89"/>
       <c r="G147" s="11"/>
     </row>
     <row r="148" spans="1:7" ht="108" customHeight="1">
-      <c r="A148" s="114"/>
+      <c r="A148" s="107"/>
       <c r="B148" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C148" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="93"/>
-      <c r="E148" s="84"/>
-      <c r="F148" s="85"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="89"/>
       <c r="G148" s="11"/>
     </row>
     <row r="149" spans="1:7" ht="54" customHeight="1">
-      <c r="A149" s="114"/>
+      <c r="A149" s="107"/>
       <c r="B149" s="22" t="s">
         <v>371</v>
       </c>
       <c r="C149" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="93" t="s">
+      <c r="D149" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E149" s="84"/>
-      <c r="F149" s="85"/>
+      <c r="E149" s="88"/>
+      <c r="F149" s="89"/>
       <c r="G149" s="11"/>
     </row>
     <row r="150" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A150" s="114"/>
+      <c r="A150" s="107"/>
       <c r="B150" s="22" t="s">
         <v>403</v>
       </c>
       <c r="C150" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="D150" s="93" t="s">
+      <c r="D150" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="E150" s="84"/>
-      <c r="F150" s="85"/>
+      <c r="E150" s="88"/>
+      <c r="F150" s="89"/>
       <c r="G150" s="11"/>
     </row>
     <row r="151" spans="1:7" ht="171" customHeight="1">
-      <c r="A151" s="114"/>
+      <c r="A151" s="107"/>
       <c r="B151" s="22" t="s">
         <v>405</v>
       </c>
       <c r="C151" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D151" s="93" t="s">
+      <c r="D151" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E151" s="84"/>
-      <c r="F151" s="85"/>
+      <c r="E151" s="88"/>
+      <c r="F151" s="89"/>
       <c r="G151" s="11"/>
     </row>
     <row r="152" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A152" s="114"/>
+      <c r="A152" s="107"/>
       <c r="B152" s="22" t="s">
         <v>407</v>
       </c>
       <c r="C152" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D152" s="93" t="s">
+      <c r="D152" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E152" s="84"/>
-      <c r="F152" s="85"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="89"/>
       <c r="G152" s="11"/>
     </row>
     <row r="153" spans="1:7" ht="127.5" customHeight="1">
-      <c r="A153" s="114"/>
+      <c r="A153" s="107"/>
       <c r="B153" s="22" t="s">
         <v>409</v>
       </c>
       <c r="C153" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="D153" s="93" t="s">
+      <c r="D153" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="E153" s="84"/>
-      <c r="F153" s="85"/>
+      <c r="E153" s="88"/>
+      <c r="F153" s="89"/>
       <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="73.5" customHeight="1">
-      <c r="A154" s="114"/>
+      <c r="A154" s="107"/>
       <c r="B154" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C154" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D154" s="93" t="s">
+      <c r="D154" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E154" s="84"/>
-      <c r="F154" s="85"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="89"/>
       <c r="G154" s="11"/>
     </row>
     <row r="155" spans="1:7" ht="261.75" customHeight="1">
-      <c r="A155" s="114"/>
+      <c r="A155" s="107"/>
       <c r="B155" s="23" t="s">
         <v>413</v>
       </c>
       <c r="C155" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="D155" s="93" t="s">
+      <c r="D155" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E155" s="84"/>
-      <c r="F155" s="85"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="89"/>
       <c r="G155" s="11"/>
     </row>
     <row r="156" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A156" s="114"/>
+      <c r="A156" s="107"/>
       <c r="B156" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="D156" s="93"/>
-      <c r="E156" s="84"/>
-      <c r="F156" s="85"/>
+      <c r="D156" s="98"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="89"/>
       <c r="G156" s="11"/>
     </row>
     <row r="157" spans="1:7" ht="288.75" customHeight="1">
-      <c r="A157" s="114"/>
+      <c r="A157" s="107"/>
       <c r="B157" s="22" t="s">
         <v>417</v>
       </c>
       <c r="C157" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="D157" s="93" t="s">
+      <c r="D157" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="84"/>
-      <c r="F157" s="85"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="89"/>
       <c r="G157" s="11"/>
     </row>
     <row r="158" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A158" s="115"/>
+      <c r="A158" s="108"/>
       <c r="B158" s="23" t="s">
         <v>418</v>
       </c>
       <c r="C158" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D158" s="93"/>
-      <c r="E158" s="84"/>
-      <c r="F158" s="85"/>
+      <c r="D158" s="98"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="89"/>
       <c r="G158" s="11"/>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1">
       <c r="G159" s="11"/>
     </row>
     <row r="160" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A160" s="116" t="s">
+      <c r="A160" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="85"/>
+      <c r="B160" s="89"/>
       <c r="C160" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D160" s="93" t="s">
+      <c r="D160" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E160" s="84"/>
-      <c r="F160" s="85"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="89"/>
       <c r="G160" s="11"/>
     </row>
     <row r="161" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A161" s="117" t="s">
+      <c r="A161" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B161" s="85"/>
+      <c r="B161" s="89"/>
       <c r="C161" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="93" t="s">
+      <c r="D161" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E161" s="84"/>
-      <c r="F161" s="85"/>
+      <c r="E161" s="88"/>
+      <c r="F161" s="89"/>
       <c r="G161" s="11"/>
     </row>
     <row r="162" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A162" s="118" t="s">
+      <c r="A162" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B162" s="85"/>
+      <c r="B162" s="89"/>
       <c r="C162" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D162" s="88"/>
-      <c r="E162" s="84"/>
-      <c r="F162" s="85"/>
+      <c r="D162" s="102"/>
+      <c r="E162" s="88"/>
+      <c r="F162" s="89"/>
       <c r="G162" s="11"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1">
@@ -9300,50 +9346,79 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="G36:G45"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A140:A158"/>
     <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A140:A158"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A88:A95"/>
     <mergeCell ref="A97:A100"/>
@@ -9368,61 +9443,24 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C91:F91"/>
@@ -9432,28 +9470,36 @@
     <mergeCell ref="C95:F95"/>
     <mergeCell ref="D102:F102"/>
     <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C105:F105"/>
     <mergeCell ref="D106:F106"/>
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="D108:F108"/>
     <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G36:G45"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A35:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -9487,14 +9533,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
@@ -9524,24 +9570,24 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
@@ -9550,12 +9596,12 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="11" t="s">
         <v>109</v>
       </c>
@@ -9564,22 +9610,22 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -9588,25 +9634,25 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:14">
@@ -9624,126 +9670,126 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="101"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="101"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="116.25" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="101"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="137" t="s">
         <v>351</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="101"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -9761,42 +9807,42 @@
       <c r="F23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="133" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -9805,65 +9851,65 @@
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="104" t="s">
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="126" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="107"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="107"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
@@ -9875,7 +9921,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="60">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -9884,47 +9930,47 @@
       <c r="C35" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="114"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="104" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="126" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="114"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="33">
         <v>1</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="103"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="114"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="33">
         <v>2</v>
       </c>
@@ -9934,27 +9980,27 @@
       <c r="D38" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="103"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="97"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="114"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="33">
         <v>3</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="114"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="33">
         <v>4</v>
       </c>
@@ -9964,138 +10010,138 @@
       <c r="D40" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="114"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="33">
         <v>5</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="114"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="33">
         <v>6</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="97"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="114"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="33">
         <v>7</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="103"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="97"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="114"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="33">
         <v>8</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="103"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="97"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="114"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="33">
         <v>9</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="103"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="97"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="115"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="33">
         <v>10</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="97"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="85"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="85"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="28" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="28" t="s">
         <v>79</v>
       </c>
@@ -12952,17 +12998,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G36:G46"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:B50"/>
@@ -12979,27 +13035,17 @@
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G36:G46"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13031,14 +13077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
@@ -13068,24 +13114,24 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
@@ -13094,12 +13140,12 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="11" t="s">
         <v>137</v>
       </c>
@@ -13108,22 +13154,22 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -13132,25 +13178,25 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:14">
@@ -13168,128 +13214,128 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="101"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="222" customHeight="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="101"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -13307,12 +13353,12 @@
       <c r="F23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="139" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="17" t="s">
         <v>145</v>
       </c>
@@ -13324,10 +13370,10 @@
       <c r="F24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="103"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="37" t="s">
         <v>148</v>
       </c>
@@ -13339,22 +13385,22 @@
       <c r="F25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="103"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -13363,73 +13409,73 @@
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="104" t="s">
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="126" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="38" t="s">
         <v>149</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="128" t="s">
+      <c r="D29" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="40" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A31" s="107"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="40" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
@@ -13441,191 +13487,191 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="114"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="42" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="133" t="s">
+      <c r="D36" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="104" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="126" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="35" t="s">
         <v>390</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="D37" s="130" t="s">
+      <c r="D37" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="103"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A38" s="114"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="35" t="s">
         <v>358</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="D38" s="130" t="s">
+      <c r="D38" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="103"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="97"/>
     </row>
     <row r="39" spans="1:7" ht="27" customHeight="1">
-      <c r="A39" s="114"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="35" t="s">
         <v>360</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="130" t="s">
+      <c r="D39" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A40" s="114"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="35" t="s">
         <v>381</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="D40" s="130" t="s">
+      <c r="D40" s="148" t="s">
         <v>425</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="1:7" ht="33" customHeight="1">
-      <c r="A41" s="114"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="35" t="s">
         <v>426</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="D41" s="134"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A42" s="114"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="35" t="s">
         <v>366</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="103"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="97"/>
     </row>
     <row r="43" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A43" s="114"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="35" t="s">
         <v>429</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="134"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="103"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="97"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A44" s="114"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="35" t="s">
         <v>431</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="97"/>
     </row>
     <row r="45" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A45" s="114"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="45" t="s">
         <v>373</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="97"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A46" s="114"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="45" t="s">
         <v>405</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="97"/>
     </row>
     <row r="47" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A47" s="115"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="45" t="s">
         <v>407</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="141" t="s">
         <v>435</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="103"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="97"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="46"/>
@@ -13633,50 +13679,50 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="28" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A50" s="131" t="s">
+      <c r="A50" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="93" t="s">
+      <c r="D50" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="85"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="85"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="28" t="s">
         <v>79</v>
       </c>
@@ -16533,18 +16579,27 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G36:G47"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="A51:B51"/>
@@ -16561,27 +16616,18 @@
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G36:G47"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -16595,7 +16641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D48" sqref="D48:F48"/>
     </sheetView>
   </sheetViews>
@@ -16611,14 +16657,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
@@ -16648,24 +16694,24 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
@@ -16674,12 +16720,12 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="11" t="s">
         <v>169</v>
       </c>
@@ -16688,22 +16734,22 @@
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -16712,25 +16758,25 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:14">
@@ -16748,128 +16794,128 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="101"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="137" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="298.5" customHeight="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="101"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -16887,12 +16933,12 @@
       <c r="F23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="139" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="17" t="s">
         <v>145</v>
       </c>
@@ -16904,10 +16950,10 @@
       <c r="F24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="103"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="37" t="s">
         <v>148</v>
       </c>
@@ -16919,22 +16965,22 @@
       <c r="F25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="103"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -16943,86 +16989,86 @@
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="104" t="s">
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="126" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="107"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="38" t="s">
         <v>149</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="128" t="s">
+      <c r="D29" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="40" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="103"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A31" s="107"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="40" t="s">
         <v>177</v>
       </c>
       <c r="C31" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="40" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="107"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="103"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="108"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="18"/>
@@ -17034,191 +17080,191 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="158" t="s">
+      <c r="B36" s="81" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="42" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="104" t="s">
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="126" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A38" s="114"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="35">
         <v>1</v>
       </c>
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="D38" s="130" t="s">
+      <c r="D38" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="103"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="97"/>
     </row>
     <row r="39" spans="1:7" ht="84" customHeight="1">
-      <c r="A39" s="114"/>
-      <c r="B39" s="157" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="C39" s="157" t="s">
+      <c r="C39" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="D39" s="130" t="s">
+      <c r="D39" s="148" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="103"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7" ht="27" customHeight="1">
-      <c r="A40" s="114"/>
-      <c r="B40" s="157" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C40" s="157" t="s">
+      <c r="C40" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="D40" s="130" t="s">
+      <c r="D40" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="103"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="157" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="C41" s="157" t="s">
+      <c r="C41" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="103"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="114"/>
-      <c r="B42" s="157" t="s">
+      <c r="A42" s="107"/>
+      <c r="B42" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="157" t="s">
+      <c r="C42" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="D42" s="134"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="103"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="97"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="157" t="s">
+      <c r="A43" s="107"/>
+      <c r="B43" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="C43" s="159" t="s">
+      <c r="C43" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="103"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="97"/>
     </row>
     <row r="44" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A44" s="114"/>
-      <c r="B44" s="157" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="80" t="s">
         <v>429</v>
       </c>
-      <c r="C44" s="157" t="s">
+      <c r="C44" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="97"/>
     </row>
     <row r="45" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A45" s="114"/>
-      <c r="B45" s="157" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="157" t="s">
+      <c r="C45" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="97"/>
     </row>
     <row r="46" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A46" s="114"/>
-      <c r="B46" s="157" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="157" t="s">
+      <c r="C46" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="103"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="97"/>
     </row>
     <row r="47" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A47" s="114"/>
-      <c r="B47" s="157" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="D47" s="134"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="103"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="97"/>
     </row>
     <row r="48" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A48" s="115"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="45" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="141" t="s">
         <v>445</v>
       </c>
-      <c r="E48" s="152"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="103"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="97"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="46"/>
@@ -17226,50 +17272,50 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A50" s="135" t="s">
+      <c r="A50" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="93" t="s">
+      <c r="D50" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="85"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A52" s="132" t="s">
+      <c r="A52" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="85"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="85"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="28" t="s">
         <v>79</v>
       </c>
@@ -20126,18 +20172,28 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G37:G48"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="D33:F33"/>
@@ -20154,28 +20210,18 @@
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G37:G48"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -20189,8 +20235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1351"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -20202,19 +20248,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
@@ -20322,19 +20368,19 @@
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="90"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="85"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
@@ -20971,19 +21017,19 @@
       <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="143" t="s">
+      <c r="A85" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="90"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="51" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="137" t="s">
+      <c r="A86" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="B86" s="81"/>
+      <c r="B86" s="85"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3"/>
@@ -21068,16 +21114,16 @@
       <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A98" s="137" t="s">
+      <c r="A98" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="81"/>
+      <c r="B98" s="85"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A99" s="137" t="s">
+      <c r="A99" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="81"/>
+      <c r="B99" s="85"/>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
@@ -21135,10 +21181,10 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="110" spans="1:4" ht="45" customHeight="1">
-      <c r="A110" s="138" t="s">
+      <c r="A110" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="81"/>
+      <c r="B110" s="85"/>
       <c r="C110" s="60" t="s">
         <v>246</v>
       </c>
@@ -21150,60 +21196,60 @@
       <c r="B111" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="144"/>
-      <c r="D111" s="140"/>
+      <c r="C111" s="161"/>
+      <c r="D111" s="157"/>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>238</v>
       </c>
       <c r="B112" s="59"/>
-      <c r="C112" s="103"/>
-      <c r="D112" s="141"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="158"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>239</v>
       </c>
       <c r="B113" s="58"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="141"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="158"/>
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B114" s="57"/>
-      <c r="C114" s="103"/>
-      <c r="D114" s="141"/>
+      <c r="C114" s="97"/>
+      <c r="D114" s="158"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>249</v>
       </c>
       <c r="B115" s="5"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="141"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="158"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>242</v>
       </c>
       <c r="B116" s="5"/>
-      <c r="C116" s="103"/>
-      <c r="D116" s="141"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="158"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="20" t="s">
         <v>250</v>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="103"/>
-      <c r="D117" s="141"/>
+      <c r="C117" s="97"/>
+      <c r="D117" s="158"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
-      <c r="C118" s="142"/>
-      <c r="D118" s="123"/>
+      <c r="C118" s="159"/>
+      <c r="D118" s="136"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="120" spans="1:26" ht="15.75" customHeight="1"/>
@@ -27120,19 +27166,19 @@
     <row r="402" spans="1:3" s="77" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="403" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="404" spans="1:3">
-      <c r="A404" s="143" t="s">
+      <c r="A404" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="B404" s="90"/>
+      <c r="B404" s="104"/>
       <c r="C404" s="51" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" s="137" t="s">
+      <c r="A405" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="B405" s="81"/>
+      <c r="B405" s="85"/>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="3"/>
@@ -27227,16 +27273,16 @@
       <c r="B417" s="3"/>
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A418" s="137" t="s">
+      <c r="A418" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="B418" s="81"/>
+      <c r="B418" s="85"/>
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A419" s="137" t="s">
+      <c r="A419" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="B419" s="81"/>
+      <c r="B419" s="85"/>
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1">
       <c r="A420" s="3"/>
@@ -27298,10 +27344,10 @@
     </row>
     <row r="429" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="430" spans="1:4" ht="45" customHeight="1">
-      <c r="A430" s="138" t="s">
+      <c r="A430" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="B430" s="81"/>
+      <c r="B430" s="85"/>
       <c r="C430" s="60" t="s">
         <v>246</v>
       </c>
@@ -27313,10 +27359,10 @@
       <c r="B431" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="C431" s="139" t="s">
+      <c r="C431" s="156" t="s">
         <v>295</v>
       </c>
-      <c r="D431" s="140"/>
+      <c r="D431" s="157"/>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1">
       <c r="A432" s="20" t="s">
@@ -27325,16 +27371,16 @@
       <c r="B432" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C432" s="103"/>
-      <c r="D432" s="141"/>
+      <c r="C432" s="97"/>
+      <c r="D432" s="158"/>
     </row>
     <row r="433" spans="1:4" ht="15.75" customHeight="1">
       <c r="A433" s="20" t="s">
         <v>239</v>
       </c>
       <c r="B433" s="58"/>
-      <c r="C433" s="103"/>
-      <c r="D433" s="141"/>
+      <c r="C433" s="97"/>
+      <c r="D433" s="158"/>
     </row>
     <row r="434" spans="1:4" ht="30">
       <c r="A434" s="20" t="s">
@@ -27343,36 +27389,36 @@
       <c r="B434" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C434" s="103"/>
-      <c r="D434" s="141"/>
+      <c r="C434" s="97"/>
+      <c r="D434" s="158"/>
     </row>
     <row r="435" spans="1:4" ht="15.75" customHeight="1">
       <c r="A435" s="20" t="s">
         <v>249</v>
       </c>
       <c r="B435" s="5"/>
-      <c r="C435" s="103"/>
-      <c r="D435" s="141"/>
+      <c r="C435" s="97"/>
+      <c r="D435" s="158"/>
     </row>
     <row r="436" spans="1:4" ht="15.75" customHeight="1">
       <c r="A436" s="20" t="s">
         <v>242</v>
       </c>
       <c r="B436" s="5"/>
-      <c r="C436" s="103"/>
-      <c r="D436" s="141"/>
+      <c r="C436" s="97"/>
+      <c r="D436" s="158"/>
     </row>
     <row r="437" spans="1:4" ht="15.75" customHeight="1">
       <c r="A437" s="20" t="s">
         <v>250</v>
       </c>
       <c r="B437" s="5"/>
-      <c r="C437" s="103"/>
-      <c r="D437" s="141"/>
+      <c r="C437" s="97"/>
+      <c r="D437" s="158"/>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C438" s="142"/>
-      <c r="D438" s="123"/>
+      <c r="C438" s="159"/>
+      <c r="D438" s="136"/>
     </row>
     <row r="439" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="440" spans="1:4" ht="15.75" customHeight="1"/>
@@ -28462,18 +28508,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5"/>
